--- a/output/part1/grs_size_op.xlsx
+++ b/output/part1/grs_size_op.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.492914632889788</v>
+        <v>11.05753622199721</v>
       </c>
       <c r="C2" t="n">
-        <v>2.69784194983913e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07414389506082404</v>
+        <v>0.005421193709372994</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.05712634959261</v>
+        <v>0.7303306206638861</v>
       </c>
       <c r="F2" t="n">
-        <v>5337.343710460339</v>
+        <v>0.5333828154792971</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.436569675911752</v>
+        <v>11.30900252532362</v>
       </c>
       <c r="C3" t="n">
-        <v>3.741451592986778e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07202991189836097</v>
+        <v>0.005422450886597523</v>
       </c>
       <c r="E3" t="n">
-        <v>-70.97412902561497</v>
+        <v>0.7304999846585886</v>
       </c>
       <c r="F3" t="n">
-        <v>5037.326990944641</v>
+        <v>0.5336302275861982</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.343784862500741</v>
+        <v>10.94425829463008</v>
       </c>
       <c r="C4" t="n">
-        <v>6.428191312579656e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07346280074595621</v>
+        <v>0.00539328069052422</v>
       </c>
       <c r="E4" t="n">
-        <v>-72.38601521661978</v>
+        <v>0.7265702436190331</v>
       </c>
       <c r="F4" t="n">
-        <v>5239.73519894071</v>
+        <v>0.527904318912621</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.515669206234406</v>
+        <v>11.36532305674047</v>
       </c>
       <c r="C5" t="n">
-        <v>2.364775042451583e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06994572049648937</v>
+        <v>0.005564303281522381</v>
       </c>
       <c r="E5" t="n">
-        <v>-68.9204867876619</v>
+        <v>0.7496100097161716</v>
       </c>
       <c r="F5" t="n">
-        <v>4750.033499048277</v>
+        <v>0.561915166666679</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.293487509042719</v>
+        <v>11.19464679770002</v>
       </c>
       <c r="C6" t="n">
-        <v>8.626432901337466e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0714842657671539</v>
+        <v>0.005394290914333699</v>
       </c>
       <c r="E6" t="n">
-        <v>-70.43648073620342</v>
+        <v>0.7267063386234435</v>
       </c>
       <c r="F6" t="n">
-        <v>4961.297818501555</v>
+        <v>0.528102102595491</v>
       </c>
     </row>
   </sheetData>
